--- a/xlsx/伊斯蘭_intext.xlsx
+++ b/xlsx/伊斯蘭_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿拉伯文</t>
   </si>
   <si>
-    <t>政策_政策_政治學_伊斯蘭</t>
+    <t>体育运动_体育运动_国际象棋_伊斯蘭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%93%8D%E4%BD%9C%E7%B3%BB%E7%BB%9F</t>
@@ -4708,7 +4708,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -4737,7 +4737,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -4911,7 +4911,7 @@
         <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -5375,7 +5375,7 @@
         <v>58</v>
       </c>
       <c r="G30" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -6738,7 +6738,7 @@
         <v>146</v>
       </c>
       <c r="G77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -8652,7 +8652,7 @@
         <v>240</v>
       </c>
       <c r="G143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
